--- a/biology/Botanique/Oliver_Hill/Oliver_Hill.xlsx
+++ b/biology/Botanique/Oliver_Hill/Oliver_Hill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oliver Hill, né en 1887 et mort en 1968, est un architecte britannique, architecte paysagiste et concepteur de jardin. Oliver Hill est apprenti chez un constructeur et un architecte, c'est un familier de Sir Edwin Lutyens. S'inscrivant à l'origine dans la tendance Arts and Crafts, il se tourne vers le modernisme dans les années 1930, favorisant des lignes courbes.
@@ -513,7 +525,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fermer Moor, à Binfeld, Berks (modifications de 1910 à 1913) (à vérifier)
 Les stands d'exposition Moorcroft, Wedgwood et Pilkington / Twyford à la British Empire Exhibition, Wembley (1924)
